--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129935.3487747466</v>
+        <v>129935.3487747468</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="C2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="D2" t="n">
-        <v>53049.64487562131</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="E2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="F2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="G2" t="n">
         <v>53049.64487562134</v>
       </c>
       <c r="H2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="I2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="J2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="K2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="L2" t="n">
-        <v>53049.64487562132</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="M2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="N2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="O2" t="n">
-        <v>53049.64487562133</v>
+        <v>53049.64487562134</v>
       </c>
       <c r="P2" t="n">
         <v>53049.64487562132</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7102.777562189345</v>
+        <v>-7102.777562189323</v>
       </c>
       <c r="C6" t="n">
-        <v>-7102.777562189338</v>
+        <v>-7102.777562189323</v>
       </c>
       <c r="D6" t="n">
-        <v>-7102.777562189352</v>
+        <v>-7102.777562189323</v>
       </c>
       <c r="E6" t="n">
-        <v>26524.82243781065</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="F6" t="n">
-        <v>26524.82243781065</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="G6" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="H6" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="I6" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="J6" t="n">
-        <v>26524.82243781065</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="K6" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="L6" t="n">
-        <v>26524.82243781065</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="M6" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="N6" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="O6" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="P6" t="n">
         <v>26524.82243781065</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129935.3487747468</v>
+        <v>4075.095936891712</v>
       </c>
     </row>
     <row r="7">
@@ -26316,16 +26316,16 @@
         <v>53049.64487562134</v>
       </c>
       <c r="C2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="D2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="E2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="F2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="G2" t="n">
         <v>53049.64487562134</v>
@@ -26337,22 +26337,22 @@
         <v>53049.64487562134</v>
       </c>
       <c r="J2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="K2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="L2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="M2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562132</v>
       </c>
       <c r="N2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="O2" t="n">
-        <v>53049.64487562134</v>
+        <v>53049.64487562133</v>
       </c>
       <c r="P2" t="n">
         <v>53049.64487562132</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7102.777562189323</v>
+        <v>-22145.79829000061</v>
       </c>
       <c r="C6" t="n">
-        <v>-7102.777562189323</v>
+        <v>-22145.79829000062</v>
       </c>
       <c r="D6" t="n">
-        <v>-7102.777562189323</v>
+        <v>-22145.79829000062</v>
       </c>
       <c r="E6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="F6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="G6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999939</v>
       </c>
       <c r="H6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.8017099994</v>
       </c>
       <c r="I6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999939</v>
       </c>
       <c r="J6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999937</v>
       </c>
       <c r="K6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="L6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999937</v>
       </c>
       <c r="M6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999937</v>
       </c>
       <c r="N6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="O6" t="n">
-        <v>26524.82243781068</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="P6" t="n">
-        <v>26524.82243781065</v>
+        <v>11481.80170999937</v>
       </c>
     </row>
   </sheetData>
